--- a/fields_description/soil_relocation_source_sites.xlsx
+++ b/fields_description/soil_relocation_source_sites.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB_REPOS\nr-soils-relocation\fields_description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E124E9F5-B816-41B5-981B-6F49C42E11C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{3ECF0116-F372-4A9E-9C3D-813C56CCA705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20493375-3AD2-43D5-89F1-6C1EE66C0280}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>long desc</t>
+  </si>
   <si>
     <t>confirmationId</t>
   </si>
   <si>
-    <t>The confirmation ID is a number generated by the CHEFS form each time a soil relocation notification form is submitted. The number is used by submitters, First Nations, municipalities, members of the public and ministry staff to track individual submissions. The confirmation ID can also be used to request additional information from the soil relocation team. It is not editable.</t>
+    <t xml:space="preserve">The confirmation ID is a number generated by the CHEFS form each time a soil relocation notification form is submitted. The number is used by submitters, First Nations, municipalities, members of the public and ministry staff to track individual submissions. The confirmation ID can also be used to request additional information from the soil relocation team. </t>
   </si>
   <si>
     <t>updateToPreviousForm</t>
@@ -137,15 +143,27 @@
     <t>legalLandDescription</t>
   </si>
   <si>
+    <t>The field lists the crown land file number, a unique seven digit number, regionally based, to identify an application or tenure on crown land.  The crown land registry is a record of crown land ownership, rights, interests and encumbrances according to the Land Act.</t>
+  </si>
+  <si>
     <t>crownLandFileNumbers</t>
   </si>
   <si>
+    <t>The field records the file number(s) for untitled Crown land of the source site involved in the soil relocation. The data is in a nullable text format.</t>
+  </si>
+  <si>
     <t>reserveNameAndNumber</t>
   </si>
   <si>
+    <t>The field records the name and number for reserve land of the source site involved in the soil relocation. The data is in a nullable text format.</t>
+  </si>
+  <si>
     <t>sourceSiteLandUse</t>
   </si>
   <si>
+    <t xml:space="preserve">The field displays the applicable primary land use for the receiving site as per the Contaminated Sites Regulations Section 12.  The data is in a nullable text format. </t>
+  </si>
+  <si>
     <t>highVolumeSite</t>
   </si>
   <si>
@@ -167,42 +185,81 @@
     <t>protocol19Exemptions</t>
   </si>
   <si>
+    <t>The field records whether exemptions from Protocol 19 apply to the source site. The data is stored as 'Yes' or 'No'.</t>
+  </si>
+  <si>
     <t>industrialSoilVol</t>
   </si>
   <si>
+    <t>The field records the soil volume to be relocated (in cubic metres) for the industrial (IL) soil quality. The data is a numerical value, and an example entry might be '13579'.</t>
+  </si>
+  <si>
     <t>commercialSoilVol</t>
   </si>
   <si>
+    <t>The field records the soil volume to be relocated (in cubic metres) for the commercial (CL) soil quality. The data is a numerical value, and an example entry might be '13579'.</t>
+  </si>
+  <si>
     <t>residentHighDensitySoilVol</t>
   </si>
   <si>
+    <t>The field records the soil volume to be relocated (in cubic metres) for the residential (RLHD) high density soil quality. The data is a numerical value, and an example entry might be '13579'.</t>
+  </si>
+  <si>
     <t>residentLowDensitySoilVol</t>
   </si>
   <si>
+    <t>The field records the soil volume to be relocated (in cubic metres) for the residential (RLLD) low density soil quality. The data is a numerical value, and an example entry might be '13579'.</t>
+  </si>
+  <si>
     <t>urbanParkSoilVol</t>
   </si>
   <si>
+    <t>The field records the soil volume to be relocated (in cubic metres) for the urban park (PL) soil quality. The data is a numerical value, and an example entry might be '13579'.</t>
+  </si>
+  <si>
     <t>agriculturalSoilVol</t>
   </si>
   <si>
+    <t>The field records the soil volume to be relocated (in cubic metres) for the agricultural (AL) soil quality. The data is a numerical value, and an example entry might be '13579'.</t>
+  </si>
+  <si>
     <t>wildlandsNaturalSoilVol</t>
   </si>
   <si>
+    <t>The field records the soil volume to be relocated (in cubic metres) for the wildlands natural (WLN) soil quality. The data is a numerical value, and an example entry might be '13579'.</t>
+  </si>
+  <si>
     <t>wildlandsRevertedSoilVol</t>
   </si>
   <si>
+    <t>The field records the soil volume to be relocated (in cubic metres) for the wildlands reverted (WLR) soil quality. The data is a numerical value, and an example entry might be '13579'.</t>
+  </si>
+  <si>
     <t>mdardSoilVol</t>
   </si>
   <si>
+    <t>The field records the soil volume to be relocated (in cubic metres) for soil quality without potential for Metals Leaching/Acid Rock Drainage (ML/ARD) as evaluated under Protocol 19. The data is a numerical value, and an example entry might be '13579'.</t>
+  </si>
+  <si>
     <t>totalSoilVolume</t>
   </si>
   <si>
+    <t>The field records the total soil volume to be relocated (in cubic metres) for all types of soil quality. The data is a numerical value, and an example entry might be '13579'.</t>
+  </si>
+  <si>
     <t>vapourExemption</t>
   </si>
   <si>
+    <t>The field records whether exemptions from analyzing vapour under the Contaminated Site Regulation or Protocol 19 apply to the source site. The data is stored as 'Yes' or 'No'.</t>
+  </si>
+  <si>
     <t>vapourExemptionDesc</t>
   </si>
   <si>
+    <t>The field records the vapour characterization method used if exemptions from analyzing vapour under the Contaminated Site Regulation or Protocol 19 do not apply to the source site. The data is in a nullable text format.</t>
+  </si>
+  <si>
     <t>soilRelocationStartDate</t>
   </si>
   <si>
@@ -230,41 +287,62 @@
     <t>receivingSite1Address</t>
   </si>
   <si>
+    <t>The field records the street address of the receiving site involved in the soil relocation. The data is in nullable text format, and an example entry might be '4567 Lougheed Highway.'</t>
+  </si>
+  <si>
     <t>receivingSite1City</t>
   </si>
   <si>
+    <t>The field records the city of the receiving site involved in the soil relocation. The data is in nullable text format, and an example entry might be 'Burnaby.'</t>
+  </si>
+  <si>
     <t>receivingSite1RegionalDistrict</t>
   </si>
   <si>
+    <t>The field records the regional district of the receiving site involved in the soil relocation. The data is a non-nullable text type. For example, 'Metro Vancouver Regional District.' is one of selections.</t>
+  </si>
+  <si>
     <t>receivingSite2Address</t>
   </si>
   <si>
+    <t>The field records the street address of the first additional receiving site involved in the soil relocation. The data is in nullable text format, and an example entry might be '4567 Lougheed Highway.'</t>
+  </si>
+  <si>
     <t>receivingSite2City</t>
   </si>
   <si>
+    <t>The field records the city of the first additional receiving site involved in the soil relocation. The data is in nullable text format, and an example entry might be 'Burnaby.'</t>
+  </si>
+  <si>
     <t>receivingSite2RegionalDistrict</t>
   </si>
   <si>
+    <t>The field records the regional district of the first additional receiving site involved in the soil relocation. The data is a non-nullable text type. For example, 'Metro Vancouver Regional District.' is one of selections.</t>
+  </si>
+  <si>
     <t>receivingSite3Address</t>
   </si>
   <si>
+    <t>The field records the street address of the secondadditional receiving site involved in the soil relocation. The data is in nullable text format, and an example entry might be '4567 Lougheed Highway.'</t>
+  </si>
+  <si>
     <t>receivingSite3City</t>
   </si>
   <si>
+    <t>The field records the city of the second additional receiving site involved in the soil relocation. The data is in nullable text format, and an example entry might be 'Burnaby.'</t>
+  </si>
+  <si>
     <t>receivingSite3RegionalDistrict</t>
   </si>
   <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>long desc</t>
+    <t>The field records the regional district of the second additional receiving site involved in the soil relocation. The data is a non-nullable text type. For example, 'Metro Vancouver Regional District.' is one of selections.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -320,6 +398,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,335 +736,413 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
     <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/fields_description/soil_relocation_source_sites.xlsx
+++ b/fields_description/soil_relocation_source_sites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GITHUB_REPOS\nr-soils-relocation\fields_description\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="13_ncr:1_{3ECF0116-F372-4A9E-9C3D-813C56CCA705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20493375-3AD2-43D5-89F1-6C1EE66C0280}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{3ECF0116-F372-4A9E-9C3D-813C56CCA705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CD7F602-0CB0-49E1-B7AF-02D11C492F15}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,6 +35,22 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Roy Jeong</author>
+  </authors>
+  <commentList>
+    <comment ref="A41" authorId="0" shapeId="0" xr:uid="{BE0AFAC0-5342-4AD2-BD18-14851007C481}">
+      <text>
+        <t>Roy Jeong:
+Never rename fields. The field name is not incorrect, it is currently actually referenced as such in AGOL internally.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
@@ -278,7 +294,7 @@
     <t>The field describes the method used for soil relocation at the source site. Examples include 'truck', 'barge', or 'train'. The data is a non-null text format.</t>
   </si>
   <si>
-    <t>qualifiedProfessionalOrganization</t>
+    <t>qualifiedProfessionalOrganizati</t>
   </si>
   <si>
     <t>The field records the name of the organization associated with the qualified professional overseeing the soil relocation process. An example entry might be 'WSP Canada Inc.'. It is an nullable text entry.</t>
@@ -390,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,7 +414,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -732,11 +747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -885,7 +900,7 @@
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1147,5 +1162,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>